--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_129.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_129.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,700 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(17.34, 24.4)]</t>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>schubert-winterreise_6</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+      <c r="D3" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02)]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:01:28.480000', '0:01:40.380000'), ('0:00:40.380000', '0:00:42.280000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:00:27.360000', '0:00:34.920000'), ('0:01:19.420000', '0:01:26.020000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E', 'E/7', 'C#:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(8.28, 15.8)]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(10.501791, 15.122562)]</t>
+          <t>[('0:01:05.440000', '0:01:09.180000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+          <t>[('0:00:19.040000', '0:00:22.580000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1052955665024631</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'D/3'], ['D', 'G', 'D'], ['C', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E', 'E', 'B'], ['B', 'E', 'B'], ['A', 'B', 'E']]</t>
+          <t>[['A', 'D/5', 'A', 'E/4']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(78.061859, 81.614512), (0.440395, 3.583854), (6.126439, 9.980952)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.672857, 20.660521), (46.272131, 52.17), (44.310045, 50.196303)]</t>
+          <t>[('0:00:17.913000', '0:00:26.611000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>[('0:00:59.220000', '0:01:11.120000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46)]</t>
+          <t>[('0:00:07.600000', '0:00:23.340000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(4.86, 9.64)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(8.2, 23.6)]</t>
+          <t>[('0:00:16.260000', '0:00:21.140000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:07.700000', '0:00:18.640000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(14.52, 29.1)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.38, 5.3)]</t>
+          <t>[('0:00:03.780000', '0:00:07.380000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:13.660000', '0:00:17.900000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(35.22, 40.0)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(31.34, 33.52)]</t>
+          <t>[('0:00:09.740000', '0:00:35.460000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:37.760000', '0:00:53.020000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(39.8, 45.4)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(30.02, 32.12)]</t>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:08.440000', '0:02:12.720000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (26.2, 33.96)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56), (2.36, 5.68)]</t>
+          <t>[('0:01:36.740000', '0:01:48.820000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:23.760000', '0:01:32.660000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(6.94, 15.94)]</t>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(11.06, 17.28)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(97.72, 114.06)]</t>
+          <t>[('0:00:00.360000', '0:02:07.800000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[('0:01:01.220000', '0:01:07.740000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_283</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1458333333333333</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'E', 'A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'D', 'G']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.366281, 10.96619)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(63.629047, 74.101247)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
